--- a/Tools/Flatbuffer/Excel/HeroConfig.xlsx
+++ b/Tools/Flatbuffer/Excel/HeroConfig.xlsx
@@ -24,10 +24,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AttackDistance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击距离</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -40,22 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BaseATK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,6 +57,26 @@
   </si>
   <si>
     <t>_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_BaseATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_AttackDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_AttackInterval</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +473,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -494,39 +494,39 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -534,19 +534,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
